--- a/dataTools/excelData/talent/talent_10001.xlsx
+++ b/dataTools/excelData/talent/talent_10001.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="210">
   <si>
     <t>ID</t>
   </si>
@@ -386,6 +386,334 @@
   <si>
     <t>talent_2_2;talent_3_5;talent_3_6</t>
     <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>天赋名</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>NAME</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>天赋说明</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>DESC</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>talent_10001_1_1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>talent_10001_1_2</t>
+  </si>
+  <si>
+    <t>talent_10001_1_3</t>
+  </si>
+  <si>
+    <t>talent_10001_1_4</t>
+  </si>
+  <si>
+    <t>talent_10001_1_5</t>
+  </si>
+  <si>
+    <t>talent_10001_1_6</t>
+  </si>
+  <si>
+    <t>talent_10001_1_7</t>
+  </si>
+  <si>
+    <t>talent_10001_1_8</t>
+  </si>
+  <si>
+    <t>talent_10001_1_9</t>
+  </si>
+  <si>
+    <t>talent_10001_1_10</t>
+  </si>
+  <si>
+    <t>talent_10001_1_11</t>
+  </si>
+  <si>
+    <t>talent_10001_1_12</t>
+  </si>
+  <si>
+    <t>talent_10001_1_13</t>
+  </si>
+  <si>
+    <t>talent_10001_1_14</t>
+  </si>
+  <si>
+    <t>talent_10001_1_15</t>
+  </si>
+  <si>
+    <t>talent_10001_1_16</t>
+  </si>
+  <si>
+    <t>talent_10001_1_17</t>
+  </si>
+  <si>
+    <t>talent_10001_2_2</t>
+  </si>
+  <si>
+    <t>talent_10001_2_3</t>
+  </si>
+  <si>
+    <t>talent_10001_2_4</t>
+  </si>
+  <si>
+    <t>talent_10001_2_5</t>
+  </si>
+  <si>
+    <t>talent_10001_2_6</t>
+  </si>
+  <si>
+    <t>talent_10001_2_7</t>
+  </si>
+  <si>
+    <t>talent_10001_2_8</t>
+  </si>
+  <si>
+    <t>talent_10001_2_9</t>
+  </si>
+  <si>
+    <t>talent_10001_2_10</t>
+  </si>
+  <si>
+    <t>talent_10001_2_11</t>
+  </si>
+  <si>
+    <t>talent_10001_2_12</t>
+  </si>
+  <si>
+    <t>talent_10001_2_13</t>
+  </si>
+  <si>
+    <t>talent_10001_2_14</t>
+  </si>
+  <si>
+    <t>talent_10001_2_15</t>
+  </si>
+  <si>
+    <t>talent_10001_2_16</t>
+  </si>
+  <si>
+    <t>talent_10001_2_17</t>
+  </si>
+  <si>
+    <t>talent_10001_3_2</t>
+  </si>
+  <si>
+    <t>talent_10001_3_3</t>
+  </si>
+  <si>
+    <t>talent_10001_2_1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>talent_10001_3_1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>talent_10001_3_4</t>
+  </si>
+  <si>
+    <t>talent_10001_3_5</t>
+  </si>
+  <si>
+    <t>talent_10001_3_6</t>
+  </si>
+  <si>
+    <t>talent_10001_3_7</t>
+  </si>
+  <si>
+    <t>talent_10001_3_8</t>
+  </si>
+  <si>
+    <t>talent_10001_3_9</t>
+  </si>
+  <si>
+    <t>talent_10001_3_10</t>
+  </si>
+  <si>
+    <t>talent_10001_3_11</t>
+  </si>
+  <si>
+    <t>talent_10001_3_12</t>
+  </si>
+  <si>
+    <t>talent_10001_3_13</t>
+  </si>
+  <si>
+    <t>talent_10001_3_14</t>
+  </si>
+  <si>
+    <t>talent_10001_3_15</t>
+  </si>
+  <si>
+    <t>talent_10001_3_16</t>
+  </si>
+  <si>
+    <t>talent_10001_3_17</t>
+  </si>
+  <si>
+    <t>talent_desc_10001_1_1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>talent_desc_10001_1_2</t>
+  </si>
+  <si>
+    <t>talent_desc_10001_1_3</t>
+  </si>
+  <si>
+    <t>talent_desc_10001_1_4</t>
+  </si>
+  <si>
+    <t>talent_desc_10001_1_5</t>
+  </si>
+  <si>
+    <t>talent_desc_10001_1_6</t>
+  </si>
+  <si>
+    <t>talent_desc_10001_1_7</t>
+  </si>
+  <si>
+    <t>talent_desc_10001_1_8</t>
+  </si>
+  <si>
+    <t>talent_desc_10001_1_9</t>
+  </si>
+  <si>
+    <t>talent_desc_10001_1_10</t>
+  </si>
+  <si>
+    <t>talent_desc_10001_1_11</t>
+  </si>
+  <si>
+    <t>talent_desc_10001_1_12</t>
+  </si>
+  <si>
+    <t>talent_desc_10001_1_13</t>
+  </si>
+  <si>
+    <t>talent_desc_10001_1_14</t>
+  </si>
+  <si>
+    <t>talent_desc_10001_1_15</t>
+  </si>
+  <si>
+    <t>talent_desc_10001_1_16</t>
+  </si>
+  <si>
+    <t>talent_desc_10001_1_17</t>
+  </si>
+  <si>
+    <t>talent_desc_10001_2_2</t>
+  </si>
+  <si>
+    <t>talent_desc_10001_2_3</t>
+  </si>
+  <si>
+    <t>talent_desc_10001_2_4</t>
+  </si>
+  <si>
+    <t>talent_desc_10001_2_5</t>
+  </si>
+  <si>
+    <t>talent_desc_10001_2_6</t>
+  </si>
+  <si>
+    <t>talent_desc_10001_2_7</t>
+  </si>
+  <si>
+    <t>talent_desc_10001_2_8</t>
+  </si>
+  <si>
+    <t>talent_desc_10001_2_9</t>
+  </si>
+  <si>
+    <t>talent_desc_10001_2_10</t>
+  </si>
+  <si>
+    <t>talent_desc_10001_2_11</t>
+  </si>
+  <si>
+    <t>talent_desc_10001_2_12</t>
+  </si>
+  <si>
+    <t>talent_desc_10001_2_13</t>
+  </si>
+  <si>
+    <t>talent_desc_10001_2_14</t>
+  </si>
+  <si>
+    <t>talent_desc_10001_2_15</t>
+  </si>
+  <si>
+    <t>talent_desc_10001_2_16</t>
+  </si>
+  <si>
+    <t>talent_desc_10001_2_17</t>
+  </si>
+  <si>
+    <t>talent_desc_10001_3_2</t>
+  </si>
+  <si>
+    <t>talent_desc_10001_3_3</t>
+  </si>
+  <si>
+    <t>talent_desc_10001_2_1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>talent_desc_10001_3_1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>talent_desc_10001_3_4</t>
+  </si>
+  <si>
+    <t>talent_desc_10001_3_5</t>
+  </si>
+  <si>
+    <t>talent_desc_10001_3_6</t>
+  </si>
+  <si>
+    <t>talent_desc_10001_3_7</t>
+  </si>
+  <si>
+    <t>talent_desc_10001_3_8</t>
+  </si>
+  <si>
+    <t>talent_desc_10001_3_9</t>
+  </si>
+  <si>
+    <t>talent_desc_10001_3_10</t>
+  </si>
+  <si>
+    <t>talent_desc_10001_3_11</t>
+  </si>
+  <si>
+    <t>talent_desc_10001_3_12</t>
+  </si>
+  <si>
+    <t>talent_desc_10001_3_13</t>
+  </si>
+  <si>
+    <t>talent_desc_10001_3_14</t>
+  </si>
+  <si>
+    <t>talent_desc_10001_3_15</t>
+  </si>
+  <si>
+    <t>talent_desc_10001_3_16</t>
+  </si>
+  <si>
+    <t>talent_desc_10001_3_17</t>
   </si>
 </sst>
 </file>
@@ -1303,445 +1631,764 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B53"/>
+  <dimension ref="A1:D53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C31" sqref="C31"/>
+      <selection pane="bottomRight" activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.125" customWidth="1"/>
     <col min="2" max="2" width="58.125" customWidth="1"/>
-    <col min="3" max="3" width="11.875" customWidth="1"/>
+    <col min="3" max="3" width="16.75" customWidth="1"/>
+    <col min="4" max="4" width="21.25" customWidth="1"/>
     <col min="9" max="9" width="14.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D6" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
       <c r="B7" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>112</v>
+      </c>
+      <c r="D7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>8</v>
       </c>
       <c r="B8" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D8" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
       <c r="B9" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>114</v>
+      </c>
+      <c r="D9" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>10</v>
       </c>
       <c r="B10" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>115</v>
+      </c>
+      <c r="D10" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>11</v>
       </c>
       <c r="B11" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
+        <v>116</v>
+      </c>
+      <c r="D11" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>12</v>
       </c>
       <c r="B12" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
+        <v>117</v>
+      </c>
+      <c r="D12" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>13</v>
       </c>
       <c r="B13" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
+        <v>118</v>
+      </c>
+      <c r="D13" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>14</v>
       </c>
       <c r="B14" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
+        <v>119</v>
+      </c>
+      <c r="D14" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>15</v>
       </c>
       <c r="B15" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C15" t="s">
+        <v>120</v>
+      </c>
+      <c r="D15" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>16</v>
       </c>
       <c r="B16" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C16" t="s">
+        <v>121</v>
+      </c>
+      <c r="D16" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>17</v>
       </c>
       <c r="B17" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C17" t="s">
+        <v>122</v>
+      </c>
+      <c r="D17" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>18</v>
       </c>
       <c r="B18" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C18" t="s">
+        <v>123</v>
+      </c>
+      <c r="D18" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>19</v>
       </c>
       <c r="B19" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C19" t="s">
+        <v>124</v>
+      </c>
+      <c r="D19" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>20</v>
       </c>
       <c r="B20" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C20" t="s">
+        <v>143</v>
+      </c>
+      <c r="D20" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>21</v>
       </c>
       <c r="B21" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C21" t="s">
+        <v>125</v>
+      </c>
+      <c r="D21" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>22</v>
       </c>
       <c r="B22" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C22" t="s">
+        <v>126</v>
+      </c>
+      <c r="D22" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C23" t="s">
+        <v>127</v>
+      </c>
+      <c r="D23" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>24</v>
       </c>
       <c r="B24" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C24" t="s">
+        <v>128</v>
+      </c>
+      <c r="D24" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>25</v>
       </c>
       <c r="B25" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C25" t="s">
+        <v>129</v>
+      </c>
+      <c r="D25" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>26</v>
       </c>
       <c r="B26" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C26" t="s">
+        <v>130</v>
+      </c>
+      <c r="D26" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>27</v>
       </c>
       <c r="B27" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C27" t="s">
+        <v>131</v>
+      </c>
+      <c r="D27" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>28</v>
       </c>
       <c r="B28" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C28" t="s">
+        <v>132</v>
+      </c>
+      <c r="D28" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>29</v>
       </c>
       <c r="B29" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C29" t="s">
+        <v>133</v>
+      </c>
+      <c r="D29" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>30</v>
       </c>
       <c r="B30" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C30" t="s">
+        <v>134</v>
+      </c>
+      <c r="D30" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>31</v>
       </c>
       <c r="B31" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C31" t="s">
+        <v>135</v>
+      </c>
+      <c r="D31" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>32</v>
       </c>
       <c r="B32" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C32" t="s">
+        <v>136</v>
+      </c>
+      <c r="D32" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>33</v>
       </c>
       <c r="B33" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C33" t="s">
+        <v>137</v>
+      </c>
+      <c r="D33" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>34</v>
       </c>
       <c r="B34" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C34" t="s">
+        <v>138</v>
+      </c>
+      <c r="D34" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>35</v>
       </c>
       <c r="B35" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C35" t="s">
+        <v>139</v>
+      </c>
+      <c r="D35" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>36</v>
       </c>
       <c r="B36" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C36" t="s">
+        <v>140</v>
+      </c>
+      <c r="D36" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>37</v>
       </c>
       <c r="B37" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C37" t="s">
+        <v>144</v>
+      </c>
+      <c r="D37" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>38</v>
       </c>
       <c r="B38" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C38" t="s">
+        <v>141</v>
+      </c>
+      <c r="D38" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>39</v>
       </c>
       <c r="B39" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C39" t="s">
+        <v>142</v>
+      </c>
+      <c r="D39" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>40</v>
       </c>
       <c r="B40" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C40" t="s">
+        <v>145</v>
+      </c>
+      <c r="D40" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>41</v>
       </c>
       <c r="B41" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C41" t="s">
+        <v>146</v>
+      </c>
+      <c r="D41" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>42</v>
       </c>
       <c r="B42" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C42" t="s">
+        <v>147</v>
+      </c>
+      <c r="D42" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>43</v>
       </c>
       <c r="B43" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C43" t="s">
+        <v>148</v>
+      </c>
+      <c r="D43" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>44</v>
       </c>
       <c r="B44" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C44" t="s">
+        <v>149</v>
+      </c>
+      <c r="D44" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>45</v>
       </c>
       <c r="B45" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C45" t="s">
+        <v>150</v>
+      </c>
+      <c r="D45" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>46</v>
       </c>
       <c r="B46" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C46" t="s">
+        <v>151</v>
+      </c>
+      <c r="D46" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>47</v>
       </c>
       <c r="B47" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C47" t="s">
+        <v>152</v>
+      </c>
+      <c r="D47" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>48</v>
       </c>
       <c r="B48" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C48" t="s">
+        <v>153</v>
+      </c>
+      <c r="D48" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>49</v>
       </c>
       <c r="B49" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C49" t="s">
+        <v>154</v>
+      </c>
+      <c r="D49" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>50</v>
       </c>
       <c r="B50" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C50" t="s">
+        <v>155</v>
+      </c>
+      <c r="D50" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>51</v>
       </c>
       <c r="B51" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C51" t="s">
+        <v>156</v>
+      </c>
+      <c r="D51" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>52</v>
       </c>
       <c r="B52" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C52" t="s">
+        <v>157</v>
+      </c>
+      <c r="D52" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>53</v>
       </c>
       <c r="B53" t="s">
         <v>102</v>
+      </c>
+      <c r="C53" t="s">
+        <v>158</v>
+      </c>
+      <c r="D53" t="s">
+        <v>209</v>
       </c>
     </row>
   </sheetData>
